--- a/inst/Data/Endocytosis/Endocytosis.xlsx
+++ b/inst/Data/Endocytosis/Endocytosis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonepernice/Desktop/GIT/R_packages_project/GelAnalyser/inst/Data/ELISA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Extreme SSD/UNI/PostDoc_Progetti/Progetto_Integrine/CMISF2023/Data/Endocytosis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{414A4901-8347-7545-B481-2100EB737B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675C5DE7-9006-4D45-A8D2-C390A6EBDD32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="500" windowWidth="20740" windowHeight="10040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12620" yWindow="500" windowWidth="20740" windowHeight="10040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -62,12 +62,96 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAAAAAA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC1C1C1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD6D6D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBEBEB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -101,19 +185,41 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="10" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="12" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="13" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="14" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="15" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
     <cellStyle name="Normale 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normale 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFEBEBEB"/>
+      <color rgb="FFD6D6D6"/>
+      <color rgb="FFC1C1C1"/>
+      <color rgb="FFAAAAAA"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -126,9 +232,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -166,9 +272,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -201,26 +307,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -253,26 +342,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -449,139 +521,139 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1">
+      <c r="A1" s="2">
         <v>0.63300000000000001</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="2">
         <v>0.623</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="2">
         <v>0.57799999999999996</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="3">
         <v>0.67300000000000004</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="3">
         <v>0.66300000000000003</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="3">
         <v>0.73199999999999998</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2" s="4">
         <v>0.63300000000000001</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="4">
         <v>0.59899999999999998</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>0.64200000000000002</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="5">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="5">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="5">
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3" s="6">
         <v>0.14399999999999999</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="6">
         <v>0.15</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="6">
         <v>0.14199999999999999</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="7">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="7">
         <v>0.107</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="7">
         <v>0.108</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4" s="8">
         <v>0.19600000000000001</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="8">
         <v>0.189</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="8">
         <v>0.191</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="9">
         <v>0.153</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="9">
         <v>0.14899999999999999</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="9">
         <v>0.13400000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5" s="10">
         <v>0.22500000000000001</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="10">
         <v>0.21299999999999999</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="10">
         <v>0.20799999999999999</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="11">
         <v>0.17499999999999999</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="11">
         <v>0.17899999999999999</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="11">
         <v>0.192</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="A6" s="12">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="12">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="12">
         <v>9.4E-2</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="13">
         <v>3.9E-2</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="13">
         <v>0.04</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="13">
         <v>3.9E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="A7" s="14">
         <v>0.127</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="14">
         <v>0.13300000000000001</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="14">
         <v>0.13200000000000001</v>
       </c>
       <c r="D7" s="1"/>
@@ -589,13 +661,13 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="A8" s="15">
         <v>0.14499999999999999</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="15">
         <v>0.13700000000000001</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="15">
         <v>0.13600000000000001</v>
       </c>
       <c r="D8" s="1"/>
